--- a/Web2Pair.xlsx
+++ b/Web2Pair.xlsx
@@ -1706,7 +1706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1716,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,6 +1855,9 @@
       <c r="P2">
         <v>380.99</v>
       </c>
+      <c r="Q2">
+        <v>400218</v>
+      </c>
       <c r="R2" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1890,7 @@
       <c r="E3" t="s">
         <v>135</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G3" t="s">
@@ -1919,6 +1922,9 @@
       </c>
       <c r="P3">
         <v>338.99</v>
+      </c>
+      <c r="Q3">
+        <v>400601</v>
       </c>
       <c r="R3" t="s">
         <v>25</v>
@@ -1949,7 +1955,7 @@
       <c r="E4" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G4" t="s">
@@ -2038,6 +2044,9 @@
       <c r="P5">
         <v>284</v>
       </c>
+      <c r="Q5">
+        <v>400601</v>
+      </c>
       <c r="R5" t="s">
         <v>25</v>
       </c>
@@ -2097,6 +2106,9 @@
       <c r="P6">
         <v>284</v>
       </c>
+      <c r="Q6">
+        <v>400601</v>
+      </c>
       <c r="R6" t="s">
         <v>25</v>
       </c>
@@ -2215,6 +2227,9 @@
       <c r="P8">
         <v>272.99</v>
       </c>
+      <c r="Q8">
+        <v>400218</v>
+      </c>
       <c r="R8" t="s">
         <v>25</v>
       </c>
@@ -2273,6 +2288,9 @@
       </c>
       <c r="P9">
         <v>150</v>
+      </c>
+      <c r="Q9">
+        <v>400218</v>
       </c>
       <c r="R9" t="s">
         <v>25</v>
@@ -7769,6 +7787,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-9831825238"/>
+    <hyperlink ref="F3" r:id="rId2" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-13900680858"/>
+    <hyperlink ref="F4" r:id="rId3" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-79715332812"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web2Pair.xlsx
+++ b/Web2Pair.xlsx
@@ -1706,7 +1706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:X126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
